--- a/data/spring-kafka-microservices/commons_structure.xlsx
+++ b/data/spring-kafka-microservices/commons_structure.xlsx
@@ -15,12 +15,14 @@
     <sheet name="interfaceToInterfaceRelations" r:id="rId9" sheetId="7"/>
     <sheet name="fieldClassRelations" r:id="rId10" sheetId="8"/>
     <sheet name="fieldInterfaceRelations" r:id="rId11" sheetId="9"/>
+    <sheet name="classNumberOfLines" r:id="rId12" sheetId="10"/>
+    <sheet name="methodNumberOfLines" r:id="rId13" sheetId="11"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="112">
   <si>
     <t>Class Name</t>
   </si>
@@ -247,48 +249,48 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>productCount</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>customerId</t>
+  </si>
+  <si>
     <t>productId</t>
   </si>
   <si>
     <t>price</t>
   </si>
   <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>productCount</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>customerId</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>REJECT</t>
   </si>
   <si>
     <t>$VALUES</t>
   </si>
   <si>
+    <t>NEW</t>
+  </si>
+  <si>
+    <t>REJECTED</t>
+  </si>
+  <si>
+    <t>CONFIRMED</t>
+  </si>
+  <si>
+    <t>ACCEPT</t>
+  </si>
+  <si>
     <t>ROLLBACK</t>
   </si>
   <si>
-    <t>NEW</t>
-  </si>
-  <si>
-    <t>CONFIRMED</t>
-  </si>
-  <si>
-    <t>ACCEPT</t>
-  </si>
-  <si>
-    <t>REJECTED</t>
-  </si>
-  <si>
     <t>PAYMENTS</t>
   </si>
   <si>
@@ -332,6 +334,30 @@
   </si>
   <si>
     <t>Target Field Name</t>
+  </si>
+  <si>
+    <t>Number of Lines</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
 </sst>
 </file>
@@ -2081,6 +2107,448 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:D1"/>
@@ -2141,7 +2609,7 @@
         <v>54</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
@@ -2155,7 +2623,7 @@
         <v>54</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
@@ -2169,7 +2637,7 @@
         <v>54</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
@@ -2183,7 +2651,7 @@
         <v>54</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
@@ -2197,7 +2665,7 @@
         <v>54</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
@@ -2225,7 +2693,7 @@
         <v>54</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
@@ -2359,13 +2827,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>54</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19">
@@ -2373,7 +2841,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>54</v>
@@ -2387,7 +2855,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>54</v>
@@ -2401,13 +2869,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>54</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
@@ -2415,13 +2883,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>54</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23">
@@ -2429,13 +2897,13 @@
         <v>20</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>54</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24">
@@ -2443,7 +2911,7 @@
         <v>20</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>54</v>
@@ -2457,13 +2925,13 @@
         <v>28</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>28</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26">
@@ -2485,13 +2953,13 @@
         <v>28</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>66</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28">
@@ -2513,7 +2981,7 @@
         <v>68</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>6</v>
@@ -2527,7 +2995,7 @@
         <v>68</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>6</v>
@@ -2541,7 +3009,7 @@
         <v>68</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>6</v>

--- a/data/spring-kafka-microservices/commons_structure.xlsx
+++ b/data/spring-kafka-microservices/commons_structure.xlsx
@@ -249,46 +249,46 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>productId</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>customerId</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
     <t>productCount</t>
   </si>
   <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
-    <t>customerId</t>
-  </si>
-  <si>
-    <t>productId</t>
-  </si>
-  <si>
-    <t>price</t>
+    <t>ACCEPT</t>
+  </si>
+  <si>
+    <t>$VALUES</t>
+  </si>
+  <si>
+    <t>ROLLBACK</t>
   </si>
   <si>
     <t>REJECT</t>
   </si>
   <si>
-    <t>$VALUES</t>
+    <t>REJECTED</t>
+  </si>
+  <si>
+    <t>CONFIRMED</t>
   </si>
   <si>
     <t>NEW</t>
-  </si>
-  <si>
-    <t>REJECTED</t>
-  </si>
-  <si>
-    <t>CONFIRMED</t>
-  </si>
-  <si>
-    <t>ACCEPT</t>
-  </si>
-  <si>
-    <t>ROLLBACK</t>
   </si>
   <si>
     <t>PAYMENTS</t>
@@ -2609,7 +2609,7 @@
         <v>54</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
@@ -2623,7 +2623,7 @@
         <v>54</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
@@ -2637,7 +2637,7 @@
         <v>54</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
@@ -2665,7 +2665,7 @@
         <v>54</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
@@ -2679,7 +2679,7 @@
         <v>54</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
@@ -2693,7 +2693,7 @@
         <v>54</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
@@ -2827,13 +2827,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>54</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19">
@@ -2841,7 +2841,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>54</v>
@@ -2855,13 +2855,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>54</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21">
@@ -2875,7 +2875,7 @@
         <v>54</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22">
@@ -2883,13 +2883,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>54</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23">
@@ -2897,13 +2897,13 @@
         <v>20</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>54</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24">
@@ -2911,7 +2911,7 @@
         <v>20</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>54</v>
@@ -2981,7 +2981,7 @@
         <v>68</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>6</v>
@@ -3009,7 +3009,7 @@
         <v>68</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>6</v>

--- a/data/spring-kafka-microservices/commons_structure.xlsx
+++ b/data/spring-kafka-microservices/commons_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="117">
   <si>
     <t>Class Name</t>
   </si>
@@ -249,54 +249,54 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>productCount</t>
+  </si>
+  <si>
     <t>productId</t>
   </si>
   <si>
-    <t>source</t>
+    <t>customerId</t>
   </si>
   <si>
     <t>status</t>
   </si>
   <si>
-    <t>customerId</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>productCount</t>
-  </si>
-  <si>
-    <t>id</t>
+    <t>ROLLBACK</t>
+  </si>
+  <si>
+    <t>REJECT</t>
+  </si>
+  <si>
+    <t>NEW</t>
   </si>
   <si>
     <t>ACCEPT</t>
   </si>
   <si>
+    <t>REJECTED</t>
+  </si>
+  <si>
+    <t>CONFIRMED</t>
+  </si>
+  <si>
     <t>$VALUES</t>
   </si>
   <si>
-    <t>ROLLBACK</t>
-  </si>
-  <si>
-    <t>REJECT</t>
-  </si>
-  <si>
-    <t>REJECTED</t>
-  </si>
-  <si>
-    <t>CONFIRMED</t>
-  </si>
-  <si>
-    <t>NEW</t>
+    <t>STOCK</t>
   </si>
   <si>
     <t>PAYMENTS</t>
   </si>
   <si>
-    <t>STOCK</t>
-  </si>
-  <si>
     <t>PAYMENT</t>
   </si>
   <si>
@@ -339,25 +339,40 @@
     <t>Number of Lines</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>46</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Order()</t>
+  </si>
+  <si>
+    <t>Order(java.lang.Long, java.lang.Long, java.lang.Long, int, int, domain.OrderStatus, domain.OrderSource)</t>
+  </si>
+  <si>
+    <t>OrderStatus(java.lang.String, int)</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>Order$OrderBuilder()</t>
+  </si>
+  <si>
+    <t>OrderSource(java.lang.String, int)</t>
   </si>
 </sst>
 </file>
@@ -2186,7 +2201,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2381,10 +2396,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>47</v>
+        <v>111</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>105</v>
@@ -2392,10 +2407,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>105</v>
@@ -2406,7 +2421,7 @@
         <v>22</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>105</v>
@@ -2414,35 +2429,35 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24">
@@ -2450,10 +2465,10 @@
         <v>20</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25">
@@ -2461,10 +2476,10 @@
         <v>20</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26">
@@ -2472,10 +2487,10 @@
         <v>20</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27">
@@ -2483,10 +2498,10 @@
         <v>20</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28">
@@ -2494,10 +2509,10 @@
         <v>20</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29">
@@ -2505,42 +2520,97 @@
         <v>20</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>105</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B32" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B36" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="C32" t="s" s="0">
+      <c r="C36" t="s" s="0">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="C37" t="s" s="0">
         <v>105</v>
       </c>
     </row>
@@ -2637,7 +2707,7 @@
         <v>54</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
@@ -2651,7 +2721,7 @@
         <v>54</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
@@ -2665,7 +2735,7 @@
         <v>54</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
@@ -2679,7 +2749,7 @@
         <v>54</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -2693,7 +2763,7 @@
         <v>54</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
@@ -2718,10 +2788,10 @@
         <v>83</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>48</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
@@ -2788,10 +2858,10 @@
         <v>88</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>22</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16">
@@ -2827,7 +2897,7 @@
         <v>20</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>54</v>
@@ -2841,7 +2911,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>54</v>
@@ -2855,13 +2925,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>54</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21">
@@ -2875,7 +2945,7 @@
         <v>54</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
@@ -2883,13 +2953,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>54</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23">
@@ -2897,13 +2967,13 @@
         <v>20</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>54</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24">
@@ -2911,13 +2981,13 @@
         <v>20</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>54</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25">
@@ -2925,13 +2995,13 @@
         <v>28</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>66</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26">
@@ -2939,7 +3009,7 @@
         <v>28</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>6</v>
@@ -2953,13 +3023,13 @@
         <v>28</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>28</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28">
@@ -2981,7 +3051,7 @@
         <v>68</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>6</v>
@@ -3009,7 +3079,7 @@
         <v>68</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>6</v>

--- a/data/spring-kafka-microservices/commons_structure.xlsx
+++ b/data/spring-kafka-microservices/commons_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="118">
   <si>
     <t>Class Name</t>
   </si>
@@ -339,10 +339,10 @@
     <t>Number of Lines</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>6</t>
+    <t>66</t>
+  </si>
+  <si>
+    <t>7</t>
   </si>
   <si>
     <t>2</t>
@@ -351,16 +351,19 @@
     <t>43</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>Order()</t>
   </si>
   <si>
     <t>Order(java.lang.Long, java.lang.Long, java.lang.Long, int, int, domain.OrderStatus, domain.OrderSource)</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
   <si>
     <t>OrderStatus(java.lang.String, int)</t>
@@ -2175,7 +2178,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7">
@@ -2183,7 +2186,7 @@
         <v>67</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8">
@@ -2191,7 +2194,7 @@
         <v>68</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2226,7 +2229,7 @@
         <v>30</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3">
@@ -2237,7 +2240,7 @@
         <v>19</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4">
@@ -2248,7 +2251,7 @@
         <v>18</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5">
@@ -2259,7 +2262,7 @@
         <v>12</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6">
@@ -2270,7 +2273,7 @@
         <v>25</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7">
@@ -2281,7 +2284,7 @@
         <v>26</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8">
@@ -2292,7 +2295,7 @@
         <v>17</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9">
@@ -2303,7 +2306,7 @@
         <v>21</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10">
@@ -2314,7 +2317,7 @@
         <v>27</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11">
@@ -2325,7 +2328,7 @@
         <v>23</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12">
@@ -2336,7 +2339,7 @@
         <v>29</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13">
@@ -2347,7 +2350,7 @@
         <v>40</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14">
@@ -2358,7 +2361,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15">
@@ -2369,7 +2372,7 @@
         <v>33</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16">
@@ -2380,7 +2383,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17">
@@ -2391,7 +2394,7 @@
         <v>32</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18">
@@ -2402,7 +2405,7 @@
         <v>111</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19">
@@ -2413,7 +2416,7 @@
         <v>112</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20">
@@ -2424,7 +2427,7 @@
         <v>47</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21">
@@ -2435,7 +2438,7 @@
         <v>43</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22">
@@ -2446,7 +2449,7 @@
         <v>53</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23">
@@ -2454,10 +2457,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24">
@@ -2468,7 +2471,7 @@
         <v>64</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25">
@@ -2479,7 +2482,7 @@
         <v>58</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26">
@@ -2490,7 +2493,7 @@
         <v>60</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27">
@@ -2501,7 +2504,7 @@
         <v>65</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28">
@@ -2512,7 +2515,7 @@
         <v>59</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29">
@@ -2523,7 +2526,7 @@
         <v>63</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30">
@@ -2534,7 +2537,7 @@
         <v>62</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31">
@@ -2545,7 +2548,7 @@
         <v>61</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32">
@@ -2556,7 +2559,7 @@
         <v>30</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33">
@@ -2564,7 +2567,7 @@
         <v>20</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>107</v>
@@ -2578,7 +2581,7 @@
         <v>47</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35">
@@ -2589,7 +2592,7 @@
         <v>43</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36">
@@ -2600,7 +2603,7 @@
         <v>53</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37">
@@ -2608,10 +2611,10 @@
         <v>28</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/data/spring-kafka-microservices/commons_structure.xlsx
+++ b/data/spring-kafka-microservices/commons_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="118">
   <si>
     <t>Class Name</t>
   </si>
@@ -126,6 +126,9 @@
     <t>setPrice(int)</t>
   </si>
   <si>
+    <t>Order()</t>
+  </si>
+  <si>
     <t>getClass()</t>
   </si>
   <si>
@@ -141,6 +144,9 @@
     <t>notify()</t>
   </si>
   <si>
+    <t>Order(java.lang.Long, java.lang.Long, java.lang.Long, int, int, domain.OrderStatus, domain.OrderSource)</t>
+  </si>
+  <si>
     <t>wait(long)</t>
   </si>
   <si>
@@ -195,6 +201,9 @@
     <t>ordinal()</t>
   </si>
   <si>
+    <t>OrderStatus(java.lang.String, int)</t>
+  </si>
+  <si>
     <t>domain.KafkaGroupIds</t>
   </si>
   <si>
@@ -216,12 +225,21 @@
     <t>status(domain.OrderStatus)</t>
   </si>
   <si>
+    <t>Order$OrderBuilder()</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>id(java.lang.Long)</t>
   </si>
   <si>
     <t>productCount(int)</t>
   </si>
   <si>
+    <t>OrderSource(java.lang.String, int)</t>
+  </si>
+  <si>
     <t>domain.OrderSource[]</t>
   </si>
   <si>
@@ -252,45 +270,45 @@
     <t>id</t>
   </si>
   <si>
+    <t>productCount</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>productId</t>
+  </si>
+  <si>
+    <t>customerId</t>
+  </si>
+  <si>
     <t>source</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>productCount</t>
-  </si>
-  <si>
-    <t>productId</t>
-  </si>
-  <si>
-    <t>customerId</t>
-  </si>
-  <si>
     <t>status</t>
   </si>
   <si>
+    <t>NEW</t>
+  </si>
+  <si>
+    <t>ACCEPT</t>
+  </si>
+  <si>
+    <t>REJECT</t>
+  </si>
+  <si>
     <t>ROLLBACK</t>
   </si>
   <si>
-    <t>REJECT</t>
-  </si>
-  <si>
-    <t>NEW</t>
-  </si>
-  <si>
-    <t>ACCEPT</t>
+    <t>$VALUES</t>
+  </si>
+  <si>
+    <t>CONFIRMED</t>
   </si>
   <si>
     <t>REJECTED</t>
   </si>
   <si>
-    <t>CONFIRMED</t>
-  </si>
-  <si>
-    <t>$VALUES</t>
-  </si>
-  <si>
     <t>STOCK</t>
   </si>
   <si>
@@ -357,25 +375,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>Order()</t>
-  </si>
-  <si>
-    <t>Order(java.lang.Long, java.lang.Long, java.lang.Long, int, int, domain.OrderStatus, domain.OrderSource)</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>OrderStatus(java.lang.String, int)</t>
-  </si>
-  <si>
     <t>4</t>
-  </si>
-  <si>
-    <t>Order$OrderBuilder()</t>
-  </si>
-  <si>
-    <t>OrderSource(java.lang.String, int)</t>
   </si>
 </sst>
 </file>
@@ -420,7 +420,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D121"/>
+  <dimension ref="A1:D126"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -717,7 +717,7 @@
         <v>6</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>35</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -725,13 +725,13 @@
         <v>4</v>
       </c>
       <c r="B22" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s" s="0">
         <v>36</v>
-      </c>
-      <c r="C22" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D22" t="s" s="0">
-        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -798,38 +798,38 @@
         <v>41</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>42</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>9</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30">
@@ -837,13 +837,13 @@
         <v>22</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31">
@@ -851,13 +851,13 @@
         <v>22</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>45</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32">
@@ -865,13 +865,13 @@
         <v>22</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33">
@@ -879,13 +879,13 @@
         <v>22</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>35</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34">
@@ -893,13 +893,13 @@
         <v>22</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35">
@@ -907,13 +907,13 @@
         <v>22</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36">
@@ -935,7 +935,7 @@
         <v>22</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>6</v>
@@ -949,13 +949,13 @@
         <v>22</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39">
@@ -963,13 +963,13 @@
         <v>22</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40">
@@ -977,13 +977,13 @@
         <v>22</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41">
@@ -991,13 +991,13 @@
         <v>22</v>
       </c>
       <c r="B41" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D41" t="s" s="0">
         <v>52</v>
-      </c>
-      <c r="C41" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D41" t="s" s="0">
-        <v>31</v>
       </c>
     </row>
     <row r="42">
@@ -1005,13 +1005,13 @@
         <v>22</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D42" t="s" s="0">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43">
@@ -1019,13 +1019,13 @@
         <v>22</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>48</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44">
@@ -1033,13 +1033,13 @@
         <v>22</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>35</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45">
@@ -1047,13 +1047,13 @@
         <v>22</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D45" t="s" s="0">
-        <v>7</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46">
@@ -1061,13 +1061,13 @@
         <v>22</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D46" t="s" s="0">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47">
@@ -1075,7 +1075,7 @@
         <v>22</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>6</v>
@@ -1089,52 +1089,52 @@
         <v>22</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D48" t="s" s="0">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>11</v>
       </c>
       <c r="D50" t="s" s="0">
-        <v>7</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D51" t="s" s="0">
         <v>7</v>
@@ -1142,27 +1142,27 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D53" t="s" s="0">
         <v>7</v>
@@ -1170,10 +1170,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>6</v>
@@ -1184,38 +1184,38 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56" t="s" s="0">
         <v>41</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D56" t="s" s="0">
-        <v>42</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>6</v>
@@ -1226,69 +1226,69 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C58" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D58" t="s" s="0">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D59" t="s" s="0">
-        <v>7</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="C60" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D60" t="s" s="0">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="C61" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D61" t="s" s="0">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D62" t="s" s="0">
         <v>7</v>
@@ -1299,13 +1299,13 @@
         <v>20</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D63" t="s" s="0">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64">
@@ -1313,7 +1313,7 @@
         <v>20</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C64" t="s" s="0">
         <v>6</v>
@@ -1327,13 +1327,13 @@
         <v>20</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C65" t="s" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D65" t="s" s="0">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66">
@@ -1341,13 +1341,13 @@
         <v>20</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="C66" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D66" t="s" s="0">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67">
@@ -1369,13 +1369,13 @@
         <v>20</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="C68" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D68" t="s" s="0">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69">
@@ -1383,13 +1383,13 @@
         <v>20</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C69" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D69" t="s" s="0">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70">
@@ -1397,13 +1397,13 @@
         <v>20</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="C70" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D70" t="s" s="0">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71">
@@ -1411,13 +1411,13 @@
         <v>20</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C71" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D71" t="s" s="0">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="72">
@@ -1425,13 +1425,13 @@
         <v>20</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="C72" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D72" t="s" s="0">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73">
@@ -1439,7 +1439,7 @@
         <v>20</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C73" t="s" s="0">
         <v>6</v>
@@ -1453,13 +1453,13 @@
         <v>20</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="C74" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D74" t="s" s="0">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75">
@@ -1467,13 +1467,13 @@
         <v>20</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="C75" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D75" t="s" s="0">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76">
@@ -1481,10 +1481,10 @@
         <v>20</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="C76" t="s" s="0">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="D76" t="s" s="0">
         <v>7</v>
@@ -1495,7 +1495,7 @@
         <v>20</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C77" t="s" s="0">
         <v>6</v>
@@ -1509,52 +1509,52 @@
         <v>20</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="C78" t="s" s="0">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D78" t="s" s="0">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="C79" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D79" t="s" s="0">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="C80" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D80" t="s" s="0">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C81" t="s" s="0">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D81" t="s" s="0">
         <v>7</v>
@@ -1562,16 +1562,16 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B82" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C82" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D82" t="s" s="0">
         <v>44</v>
-      </c>
-      <c r="C82" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D82" t="s" s="0">
-        <v>45</v>
       </c>
     </row>
     <row r="83">
@@ -1579,13 +1579,13 @@
         <v>28</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C83" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D83" t="s" s="0">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84">
@@ -1593,13 +1593,13 @@
         <v>28</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D84" t="s" s="0">
-        <v>35</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85">
@@ -1607,10 +1607,10 @@
         <v>28</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="C85" t="s" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D85" t="s" s="0">
         <v>7</v>
@@ -1621,13 +1621,13 @@
         <v>28</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="C86" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D86" t="s" s="0">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="87">
@@ -1635,13 +1635,13 @@
         <v>28</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C87" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D87" t="s" s="0">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="88">
@@ -1649,13 +1649,13 @@
         <v>28</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C88" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D88" t="s" s="0">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="89">
@@ -1663,13 +1663,13 @@
         <v>28</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C89" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D89" t="s" s="0">
-        <v>66</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90">
@@ -1677,13 +1677,13 @@
         <v>28</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="C90" t="s" s="0">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D90" t="s" s="0">
-        <v>50</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91">
@@ -1691,7 +1691,7 @@
         <v>28</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="C91" t="s" s="0">
         <v>6</v>
@@ -1705,13 +1705,13 @@
         <v>28</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C92" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D92" t="s" s="0">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93">
@@ -1719,13 +1719,13 @@
         <v>28</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C93" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D93" t="s" s="0">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94">
@@ -1733,13 +1733,13 @@
         <v>28</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C94" t="s" s="0">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="D94" t="s" s="0">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="95">
@@ -1747,13 +1747,13 @@
         <v>28</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C95" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D95" t="s" s="0">
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="96">
@@ -1761,13 +1761,13 @@
         <v>28</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="C96" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D96" t="s" s="0">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97">
@@ -1775,13 +1775,13 @@
         <v>28</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C97" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D97" t="s" s="0">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="98">
@@ -1789,7 +1789,7 @@
         <v>28</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C98" t="s" s="0">
         <v>6</v>
@@ -1803,38 +1803,38 @@
         <v>28</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="C99" t="s" s="0">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="D99" t="s" s="0">
-        <v>42</v>
+        <v>72</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="0">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="C100" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D100" t="s" s="0">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="0">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="C101" t="s" s="0">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D101" t="s" s="0">
         <v>7</v>
@@ -1842,122 +1842,122 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="0">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C102" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D102" t="s" s="0">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="0">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C103" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D103" t="s" s="0">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="0">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C104" t="s" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D104" t="s" s="0">
-        <v>7</v>
+        <v>44</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="0">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D105" t="s" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="0">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C106" t="s" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D106" t="s" s="0">
-        <v>35</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="0">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C107" t="s" s="0">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D107" t="s" s="0">
-        <v>42</v>
+        <v>7</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="0">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C108" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D108" t="s" s="0">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="0">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B109" t="s" s="0">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="C109" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D109" t="s" s="0">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="0">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B110" t="s" s="0">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C110" t="s" s="0">
         <v>6</v>
@@ -1968,38 +1968,38 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="0">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C111" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D111" t="s" s="0">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="0">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B112" t="s" s="0">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C112" t="s" s="0">
         <v>11</v>
       </c>
       <c r="D112" t="s" s="0">
-        <v>7</v>
+        <v>44</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="0">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B113" t="s" s="0">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C113" t="s" s="0">
         <v>6</v>
@@ -2010,24 +2010,24 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="0">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B114" t="s" s="0">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C114" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D114" t="s" s="0">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="0">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B115" t="s" s="0">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C115" t="s" s="0">
         <v>6</v>
@@ -2038,85 +2038,155 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="0">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B116" t="s" s="0">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D116" t="s" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="0">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B117" t="s" s="0">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C117" t="s" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D117" t="s" s="0">
-        <v>35</v>
+        <v>7</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="0">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B118" t="s" s="0">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C118" t="s" s="0">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D118" t="s" s="0">
-        <v>42</v>
+        <v>7</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="0">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C119" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D119" t="s" s="0">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="0">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="C120" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D120" t="s" s="0">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="0">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B121" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C121" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D121" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="B122" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="C122" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D122" t="s" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="B123" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C123" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D123" t="s" s="0">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="B124" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="C121" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D121" t="s" s="0">
+      <c r="C124" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D124" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="B125" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C125" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D125" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="B126" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C126" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D126" t="s" s="0">
         <v>7</v>
       </c>
     </row>
@@ -2138,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2">
@@ -2146,7 +2216,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3">
@@ -2154,15 +2224,15 @@
         <v>22</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5">
@@ -2170,7 +2240,7 @@
         <v>20</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6">
@@ -2178,23 +2248,23 @@
         <v>28</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2204,7 +2274,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2218,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2">
@@ -2229,7 +2299,7 @@
         <v>30</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3">
@@ -2240,7 +2310,7 @@
         <v>19</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4">
@@ -2251,7 +2321,7 @@
         <v>18</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5">
@@ -2262,7 +2332,7 @@
         <v>12</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6">
@@ -2273,7 +2343,7 @@
         <v>25</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7">
@@ -2284,7 +2354,7 @@
         <v>26</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8">
@@ -2295,7 +2365,7 @@
         <v>17</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9">
@@ -2306,7 +2376,7 @@
         <v>21</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10">
@@ -2317,7 +2387,7 @@
         <v>27</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11">
@@ -2328,7 +2398,7 @@
         <v>23</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12">
@@ -2339,7 +2409,7 @@
         <v>29</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13">
@@ -2347,10 +2417,10 @@
         <v>4</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14">
@@ -2361,7 +2431,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15">
@@ -2372,7 +2442,7 @@
         <v>33</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16">
@@ -2383,7 +2453,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17">
@@ -2394,29 +2464,29 @@
         <v>32</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>111</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20">
@@ -2424,43 +2494,43 @@
         <v>22</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>114</v>
+        <v>63</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24">
@@ -2468,10 +2538,10 @@
         <v>20</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25">
@@ -2479,10 +2549,10 @@
         <v>20</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26">
@@ -2490,10 +2560,10 @@
         <v>20</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27">
@@ -2504,7 +2574,7 @@
         <v>65</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28">
@@ -2512,7 +2582,7 @@
         <v>20</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>115</v>
@@ -2523,7 +2593,7 @@
         <v>20</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>115</v>
@@ -2531,90 +2601,35 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="B33" t="s" s="0">
         <v>116</v>
-      </c>
-      <c r="C33" t="s" s="0">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="B34" t="s" s="0">
-        <v>47</v>
-      </c>
-      <c r="C34" t="s" s="0">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="B35" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="C35" t="s" s="0">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="B36" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="C36" t="s" s="0">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="B37" t="s" s="0">
-        <v>117</v>
-      </c>
-      <c r="C37" t="s" s="0">
-        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2632,13 +2647,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D1" t="s" s="0">
         <v>3</v>
@@ -2662,13 +2677,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2">
@@ -2676,10 +2691,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s" s="0">
         <v>13</v>
@@ -2690,13 +2705,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
@@ -2704,10 +2719,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s" s="0">
         <v>16</v>
@@ -2718,13 +2733,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
@@ -2732,10 +2747,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s" s="0">
         <v>13</v>
@@ -2746,13 +2761,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8">
@@ -2760,10 +2775,10 @@
         <v>4</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s" s="0">
         <v>22</v>
@@ -2774,7 +2789,7 @@
         <v>22</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>6</v>
@@ -2788,7 +2803,7 @@
         <v>22</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>6</v>
@@ -2802,7 +2817,7 @@
         <v>22</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>6</v>
@@ -2816,7 +2831,7 @@
         <v>22</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>6</v>
@@ -2830,13 +2845,13 @@
         <v>22</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14">
@@ -2844,7 +2859,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>6</v>
@@ -2858,21 +2873,21 @@
         <v>22</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>48</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>6</v>
@@ -2883,10 +2898,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>6</v>
@@ -2900,13 +2915,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19">
@@ -2914,10 +2929,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D19" t="s" s="0">
         <v>13</v>
@@ -2928,13 +2943,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21">
@@ -2942,13 +2957,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22">
@@ -2956,13 +2971,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23">
@@ -2970,13 +2985,13 @@
         <v>20</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24">
@@ -2984,13 +2999,13 @@
         <v>20</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25">
@@ -2998,13 +3013,13 @@
         <v>28</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>28</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26">
@@ -3012,7 +3027,7 @@
         <v>28</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>6</v>
@@ -3026,21 +3041,21 @@
         <v>28</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>66</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>6</v>
@@ -3051,10 +3066,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>6</v>
@@ -3065,10 +3080,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>6</v>
@@ -3079,10 +3094,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>6</v>
@@ -3106,19 +3121,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -3136,19 +3151,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -3166,19 +3181,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B1" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="C1" t="s" s="0">
         <v>101</v>
       </c>
-      <c r="C1" t="s" s="0">
-        <v>95</v>
-      </c>
       <c r="D1" t="s" s="0">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -3196,19 +3211,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -3226,19 +3241,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D1" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="E1" t="s" s="0">
         <v>103</v>
-      </c>
-      <c r="E1" t="s" s="0">
-        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3256,19 +3271,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D1" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="E1" t="s" s="0">
         <v>103</v>
-      </c>
-      <c r="E1" t="s" s="0">
-        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/data/spring-kafka-microservices/commons_structure.xlsx
+++ b/data/spring-kafka-microservices/commons_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="119">
   <si>
     <t>Class Name</t>
   </si>
@@ -270,22 +270,34 @@
     <t>id</t>
   </si>
   <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>productId</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
     <t>productCount</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>productId</t>
+    <t>status</t>
   </si>
   <si>
     <t>customerId</t>
   </si>
   <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>status</t>
+    <t>CONFIRMED</t>
+  </si>
+  <si>
+    <t>REJECT</t>
+  </si>
+  <si>
+    <t>$VALUES</t>
+  </si>
+  <si>
+    <t>ROLLBACK</t>
   </si>
   <si>
     <t>NEW</t>
@@ -294,27 +306,15 @@
     <t>ACCEPT</t>
   </si>
   <si>
-    <t>REJECT</t>
-  </si>
-  <si>
-    <t>ROLLBACK</t>
-  </si>
-  <si>
-    <t>$VALUES</t>
-  </si>
-  <si>
-    <t>CONFIRMED</t>
-  </si>
-  <si>
     <t>REJECTED</t>
   </si>
   <si>
+    <t>PAYMENTS</t>
+  </si>
+  <si>
     <t>STOCK</t>
   </si>
   <si>
-    <t>PAYMENTS</t>
-  </si>
-  <si>
     <t>PAYMENT</t>
   </si>
   <si>
@@ -373,6 +373,9 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
   <si>
     <t>4</t>
@@ -2274,7 +2277,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2469,24 +2472,24 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20">
@@ -2494,7 +2497,7 @@
         <v>22</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>116</v>
@@ -2502,35 +2505,35 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24">
@@ -2538,10 +2541,10 @@
         <v>20</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25">
@@ -2549,10 +2552,10 @@
         <v>20</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26">
@@ -2560,10 +2563,10 @@
         <v>20</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27">
@@ -2571,10 +2574,10 @@
         <v>20</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28">
@@ -2582,10 +2585,10 @@
         <v>20</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29">
@@ -2593,42 +2596,97 @@
         <v>20</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B32" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B37" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="C32" t="s" s="0">
+      <c r="C37" t="s" s="0">
         <v>116</v>
       </c>
     </row>
@@ -2711,7 +2769,7 @@
         <v>56</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
@@ -2725,7 +2783,7 @@
         <v>56</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
@@ -2739,7 +2797,7 @@
         <v>56</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
@@ -2753,7 +2811,7 @@
         <v>56</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
@@ -2767,7 +2825,7 @@
         <v>56</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
@@ -2781,7 +2839,7 @@
         <v>56</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
@@ -2820,10 +2878,10 @@
         <v>90</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12">
@@ -2848,10 +2906,10 @@
         <v>92</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>50</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14">
@@ -2915,13 +2973,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>56</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
@@ -2929,7 +2987,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>56</v>
@@ -2943,7 +3001,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>56</v>
@@ -2957,7 +3015,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>56</v>
@@ -2971,7 +3029,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>56</v>
@@ -2985,7 +3043,7 @@
         <v>20</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>56</v>
@@ -2999,13 +3057,13 @@
         <v>20</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>56</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25">
@@ -3013,7 +3071,7 @@
         <v>28</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>56</v>
@@ -3027,7 +3085,7 @@
         <v>28</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>6</v>
@@ -3041,7 +3099,7 @@
         <v>28</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>6</v>

--- a/data/spring-kafka-microservices/commons_structure.xlsx
+++ b/data/spring-kafka-microservices/commons_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="120">
   <si>
     <t>Class Name</t>
   </si>
@@ -267,45 +267,45 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>productId</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>productCount</t>
+  </si>
+  <si>
+    <t>customerId</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>productId</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>productCount</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>customerId</t>
+    <t>ROLLBACK</t>
+  </si>
+  <si>
+    <t>REJECT</t>
+  </si>
+  <si>
+    <t>ACCEPT</t>
+  </si>
+  <si>
+    <t>NEW</t>
   </si>
   <si>
     <t>CONFIRMED</t>
   </si>
   <si>
-    <t>REJECT</t>
-  </si>
-  <si>
     <t>$VALUES</t>
   </si>
   <si>
-    <t>ROLLBACK</t>
-  </si>
-  <si>
-    <t>NEW</t>
-  </si>
-  <si>
-    <t>ACCEPT</t>
-  </si>
-  <si>
     <t>REJECTED</t>
   </si>
   <si>
@@ -376,6 +376,9 @@
   </si>
   <si>
     <t>9</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>4</t>
@@ -2500,7 +2503,7 @@
         <v>49</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21">
@@ -2511,7 +2514,7 @@
         <v>45</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22">
@@ -2522,7 +2525,7 @@
         <v>59</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23">
@@ -2533,7 +2536,7 @@
         <v>55</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24">
@@ -2555,7 +2558,7 @@
         <v>69</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26">
@@ -2566,7 +2569,7 @@
         <v>61</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27">
@@ -2577,7 +2580,7 @@
         <v>63</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28">
@@ -2588,7 +2591,7 @@
         <v>70</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29">
@@ -2599,7 +2602,7 @@
         <v>62</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30">
@@ -2610,7 +2613,7 @@
         <v>66</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31">
@@ -2621,7 +2624,7 @@
         <v>65</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32">
@@ -2654,7 +2657,7 @@
         <v>49</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35">
@@ -2665,7 +2668,7 @@
         <v>45</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36">
@@ -2676,7 +2679,7 @@
         <v>71</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37">
@@ -2687,7 +2690,7 @@
         <v>55</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2755,7 +2758,7 @@
         <v>56</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
@@ -2769,7 +2772,7 @@
         <v>56</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
@@ -2797,7 +2800,7 @@
         <v>56</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
@@ -2825,7 +2828,7 @@
         <v>56</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -2878,10 +2881,10 @@
         <v>90</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>50</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12">
@@ -2920,10 +2923,10 @@
         <v>93</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15">
@@ -2973,13 +2976,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>56</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19">
@@ -2987,13 +2990,13 @@
         <v>20</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>56</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20">
@@ -3001,13 +3004,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>56</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21">
@@ -3021,7 +3024,7 @@
         <v>56</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22">
@@ -3029,7 +3032,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>56</v>
@@ -3043,7 +3046,7 @@
         <v>20</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>56</v>
@@ -3057,13 +3060,13 @@
         <v>20</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>56</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25">
@@ -3071,13 +3074,13 @@
         <v>28</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>72</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26">
@@ -3085,13 +3088,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>28</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27">
@@ -3099,7 +3102,7 @@
         <v>28</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>6</v>
@@ -3127,7 +3130,7 @@
         <v>74</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>6</v>
@@ -3141,7 +3144,7 @@
         <v>74</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>6</v>
